--- a/src/main/resources/import/SanPham.xlsx
+++ b/src/main/resources/import/SanPham.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Downloads\tesst\QuanLyHieuSach\src\main\resources\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DCDF65-CCF7-478E-932C-3458E9C3A084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E5C102-CC30-4A5B-91C6-EC3CB90845C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4A98E7E-91B4-4117-82EF-535CA966D02F}"/>
   </bookViews>
@@ -496,7 +496,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₫&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0\ &quot;₫&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -528,10 +528,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -848,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB6A4C7-4B50-4675-8CC3-47D0FEE36865}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -861,10 +860,10 @@
     <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -890,16 +889,16 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -920,17 +919,17 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E62" ca="1" si="0">ROUND(RAND()*(30-5)+5, 1)</f>
-        <v>28.3</v>
+        <f ca="1">ROUND(RAND()*(30-5)+5, 1)</f>
+        <v>15.6</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2">
-        <f ca="1">INT(RAND()*2)</f>
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
+        <f ca="1">IF(RAND() &lt;= 0.8, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
         <f>I2*0.5</f>
         <v>90000</v>
       </c>
@@ -941,11 +940,12 @@
         <v>50</v>
       </c>
       <c r="K2" s="1">
-        <f t="shared" ref="K2:K62" si="1">I2*(I2*0.55)+H2</f>
-        <v>17820090000.000004</v>
+        <f>I2+(I2*0.55)+H2</f>
+        <v>369000</v>
       </c>
       <c r="L2">
-        <v>200000</v>
+        <f ca="1">ROUNDUP(K2 * CHOOSE(RANDBETWEEN(1, 4),0.1, 0.2, 0.3,0), 2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -962,18 +962,18 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>21.6</v>
+        <f ca="1">ROUND(RAND()*(30-5)+5, 1)</f>
+        <v>12.8</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G62" ca="1" si="2">INT(RAND()*2)</f>
+        <f t="shared" ref="G3:G62" ca="1" si="0">IF(RAND() &lt;= 0.8, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H62" si="3">I3*0.5</f>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H62" si="1">I3*0.5</f>
         <v>250000</v>
       </c>
       <c r="I3" s="1">
@@ -983,11 +983,12 @@
         <v>25</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" si="1"/>
-        <v>137500250000</v>
+        <f t="shared" ref="K3:K62" si="2">I3+(I3*0.55)+H3</f>
+        <v>1025000</v>
       </c>
       <c r="L3">
-        <v>580000</v>
+        <f t="shared" ref="L3:L62" ca="1" si="3">ROUNDUP(K3 * CHOOSE(RANDBETWEEN(1, 4),0.1, 0.2, 0.3,0), 2)</f>
+        <v>307500</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1004,18 +1005,18 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.5</v>
+        <f t="shared" ref="E4:E62" ca="1" si="4">ROUND(RAND()*(30-5)+5, 1)</f>
+        <v>15.3</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
         <v>35000</v>
       </c>
       <c r="I4" s="1">
@@ -1025,11 +1026,12 @@
         <v>10</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="1"/>
-        <v>2695035000</v>
+        <f t="shared" si="2"/>
+        <v>143500</v>
       </c>
       <c r="L4">
-        <v>7200000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>28700</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1046,18 +1048,18 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>15.7</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
         <v>400000</v>
       </c>
       <c r="I5" s="1">
@@ -1067,11 +1069,12 @@
         <v>40</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="1"/>
-        <v>352000400000.00006</v>
+        <f t="shared" si="2"/>
+        <v>1640000</v>
       </c>
       <c r="L5">
-        <v>900000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1088,18 +1091,18 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>18.399999999999999</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>23.9</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
         <v>150000</v>
       </c>
       <c r="I6" s="1">
@@ -1109,11 +1112,12 @@
         <v>30</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="1"/>
-        <v>49500150000</v>
+        <f t="shared" si="2"/>
+        <v>615000</v>
       </c>
       <c r="L6">
-        <v>350000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>123000</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1130,18 +1134,18 @@
         <v>19</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>28.7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
         <v>35000</v>
       </c>
       <c r="I7" s="1">
@@ -1151,11 +1155,12 @@
         <v>60</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="1"/>
-        <v>2695035000</v>
+        <f t="shared" si="2"/>
+        <v>143500</v>
       </c>
       <c r="L7">
-        <v>90000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>43050</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1172,18 +1177,18 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>27.5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6.1</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
       <c r="I8" s="1">
@@ -1193,11 +1198,12 @@
         <v>80</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="1"/>
-        <v>1375025000.0000002</v>
+        <f t="shared" si="2"/>
+        <v>102500</v>
       </c>
       <c r="L8">
-        <v>70000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10250</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1214,18 +1220,18 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>25.4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>18.399999999999999</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
         <v>750000</v>
       </c>
       <c r="I9" s="1">
@@ -1235,11 +1241,12 @@
         <v>15</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="1"/>
-        <v>1237500750000.0002</v>
+        <f t="shared" si="2"/>
+        <v>3075000</v>
       </c>
       <c r="L9">
-        <v>1700000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>307500</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1256,18 +1263,18 @@
         <v>19</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>20.2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16.600000000000001</v>
       </c>
       <c r="F10" t="s">
         <v>41</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="I10" s="1">
@@ -1277,11 +1284,12 @@
         <v>70</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="1"/>
-        <v>22000100000.000004</v>
+        <f t="shared" si="2"/>
+        <v>410000</v>
       </c>
       <c r="L10">
-        <v>280000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>41000</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1298,18 +1306,18 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.3</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
         <v>60000</v>
       </c>
       <c r="I11" s="1">
@@ -1319,11 +1327,12 @@
         <v>90</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="1"/>
-        <v>7920060000</v>
+        <f t="shared" si="2"/>
+        <v>246000</v>
       </c>
       <c r="L11">
-        <v>130000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>24600</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1340,18 +1349,18 @@
         <v>19</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>22.8</v>
       </c>
       <c r="F12" t="s">
         <v>46</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
         <v>45000</v>
       </c>
       <c r="I12" s="1">
@@ -1361,11 +1370,12 @@
         <v>120</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="1"/>
-        <v>4455045000.000001</v>
+        <f t="shared" si="2"/>
+        <v>184500</v>
       </c>
       <c r="L12">
-        <v>100000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>36900</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1382,18 +1392,18 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16.8</v>
       </c>
       <c r="F13" t="s">
         <v>30</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
         <v>150000</v>
       </c>
       <c r="I13" s="1">
@@ -1403,11 +1413,12 @@
         <v>35</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="1"/>
-        <v>49500150000</v>
+        <f t="shared" si="2"/>
+        <v>615000</v>
       </c>
       <c r="L13">
-        <v>380000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>61500</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1424,18 +1435,18 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>18.5</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
         <v>60000</v>
       </c>
       <c r="I14" s="1">
@@ -1445,11 +1456,12 @@
         <v>65</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="1"/>
-        <v>7920060000</v>
+        <f t="shared" si="2"/>
+        <v>246000</v>
       </c>
       <c r="L14">
-        <v>130000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>49200</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1466,18 +1478,18 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6999999999999993</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27.2</v>
       </c>
       <c r="F15" t="s">
         <v>53</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
         <v>175000</v>
       </c>
       <c r="I15" s="1">
@@ -1487,11 +1499,12 @@
         <v>20</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="1"/>
-        <v>67375175000.000008</v>
+        <f t="shared" si="2"/>
+        <v>717500</v>
       </c>
       <c r="L15">
-        <v>450000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>143500</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1508,18 +1521,18 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>24.4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>26.2</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
         <v>125000</v>
       </c>
       <c r="I16" s="1">
@@ -1529,11 +1542,12 @@
         <v>55</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="1"/>
-        <v>34375125000</v>
+        <f t="shared" si="2"/>
+        <v>512500</v>
       </c>
       <c r="L16">
-        <v>320000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>153750</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1550,18 +1564,18 @@
         <v>19</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>24.3</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
         <v>125000</v>
       </c>
       <c r="I17" s="1">
@@ -1571,11 +1585,12 @@
         <v>10</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="1"/>
-        <v>34375125000</v>
+        <f t="shared" si="2"/>
+        <v>512500</v>
       </c>
       <c r="L17">
-        <v>150000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1592,18 +1607,18 @@
         <v>15</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
         <v>30</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
         <v>40000</v>
       </c>
       <c r="I18" s="1">
@@ -1613,11 +1628,12 @@
         <v>85</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="1"/>
-        <v>3520040000</v>
+        <f t="shared" si="2"/>
+        <v>164000</v>
       </c>
       <c r="L18">
-        <v>90000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>32800</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1634,18 +1650,18 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>23.9</v>
       </c>
       <c r="F19" t="s">
         <v>46</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="I19" s="1">
@@ -1655,11 +1671,12 @@
         <v>40</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="1"/>
-        <v>22000100000.000004</v>
+        <f t="shared" si="2"/>
+        <v>410000</v>
       </c>
       <c r="L19">
-        <v>280000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1676,18 +1693,18 @@
         <v>19</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="0"/>
-        <v>22.2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9.6</v>
       </c>
       <c r="F20" t="s">
         <v>33</v>
       </c>
       <c r="G20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="2">
-        <f t="shared" si="3"/>
+      <c r="H20" s="1">
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
       <c r="I20" s="1">
@@ -1697,11 +1714,12 @@
         <v>30</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="1"/>
-        <v>17820090000.000004</v>
+        <f t="shared" si="2"/>
+        <v>369000</v>
       </c>
       <c r="L20">
-        <v>200000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>36900</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1718,18 +1736,18 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="0"/>
-        <v>20.5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7.3</v>
       </c>
       <c r="F21" t="s">
         <v>36</v>
       </c>
       <c r="G21">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="1"/>
         <v>60000</v>
       </c>
       <c r="I21" s="1">
@@ -1739,11 +1757,12 @@
         <v>65</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="1"/>
-        <v>7920060000</v>
+        <f t="shared" si="2"/>
+        <v>246000</v>
       </c>
       <c r="L21">
-        <v>130000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>24600</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1760,18 +1779,18 @@
         <v>23</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="0"/>
-        <v>22.1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>13.7</v>
       </c>
       <c r="F22" t="s">
         <v>68</v>
       </c>
       <c r="G22">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
       <c r="I22" s="1">
@@ -1781,11 +1800,12 @@
         <v>95</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="1"/>
-        <v>1375025000.0000002</v>
+        <f t="shared" si="2"/>
+        <v>102500</v>
       </c>
       <c r="L22">
-        <v>65000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30750</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1802,18 +1822,18 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8.1</v>
       </c>
       <c r="F23" t="s">
         <v>71</v>
       </c>
       <c r="G23">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="1"/>
         <v>12500</v>
       </c>
       <c r="I23" s="1">
@@ -1823,11 +1843,12 @@
         <v>110</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="1"/>
-        <v>343762500.00000006</v>
+        <f t="shared" si="2"/>
+        <v>51250</v>
       </c>
       <c r="L23">
-        <v>35000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10250</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1844,18 +1865,18 @@
         <v>19</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="0"/>
-        <v>28.4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>26.2</v>
       </c>
       <c r="F24" t="s">
         <v>30</v>
       </c>
       <c r="G24">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="1"/>
         <v>40000</v>
       </c>
       <c r="I24" s="1">
@@ -1865,11 +1886,12 @@
         <v>50</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="1"/>
-        <v>3520040000</v>
+        <f t="shared" si="2"/>
+        <v>164000</v>
       </c>
       <c r="L24">
-        <v>90000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>49200</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1886,18 +1908,18 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.399999999999999</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>29.6</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="I25" s="1">
@@ -1907,11 +1929,12 @@
         <v>70</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="1"/>
-        <v>495015000</v>
+        <f t="shared" si="2"/>
+        <v>61500</v>
       </c>
       <c r="L25">
-        <v>45000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1928,18 +1951,18 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>25.7</v>
       </c>
       <c r="F26" t="s">
         <v>27</v>
       </c>
       <c r="G26">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="1"/>
         <v>17500</v>
       </c>
       <c r="I26" s="1">
@@ -1949,11 +1972,12 @@
         <v>80</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="1"/>
-        <v>673767500</v>
+        <f t="shared" si="2"/>
+        <v>71750</v>
       </c>
       <c r="L26">
-        <v>45000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>21525</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1970,18 +1994,18 @@
         <v>23</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8.6</v>
       </c>
       <c r="F27" t="s">
         <v>20</v>
       </c>
       <c r="G27">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="1"/>
         <v>75000</v>
       </c>
       <c r="I27" s="1">
@@ -1991,11 +2015,12 @@
         <v>25</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="1"/>
-        <v>12375075000</v>
+        <f t="shared" si="2"/>
+        <v>307500</v>
       </c>
       <c r="L27">
-        <v>180000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>61500</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2012,18 +2037,18 @@
         <v>19</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6.8</v>
       </c>
       <c r="F28" t="s">
         <v>82</v>
       </c>
       <c r="G28">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="H28" s="2">
-        <f t="shared" si="3"/>
+      <c r="H28" s="1">
+        <f t="shared" si="1"/>
         <v>35000</v>
       </c>
       <c r="I28" s="1">
@@ -2033,11 +2058,12 @@
         <v>35</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="1"/>
-        <v>2695035000</v>
+        <f t="shared" si="2"/>
+        <v>143500</v>
       </c>
       <c r="L28">
-        <v>90000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>43050</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2054,18 +2080,18 @@
         <v>15</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="0"/>
-        <v>28.5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>15.7</v>
       </c>
       <c r="F29" t="s">
         <v>30</v>
       </c>
       <c r="G29">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="1"/>
         <v>150000</v>
       </c>
       <c r="I29" s="1">
@@ -2075,11 +2101,12 @@
         <v>45</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="1"/>
-        <v>49500150000</v>
+        <f t="shared" si="2"/>
+        <v>615000</v>
       </c>
       <c r="L29">
-        <v>380000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>184500</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2096,18 +2123,18 @@
         <v>23</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27.7</v>
       </c>
       <c r="F30" t="s">
         <v>87</v>
       </c>
       <c r="G30">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="H30" s="2">
-        <f t="shared" si="3"/>
+      <c r="H30" s="1">
+        <f t="shared" si="1"/>
         <v>40000</v>
       </c>
       <c r="I30" s="1">
@@ -2117,11 +2144,12 @@
         <v>55</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="1"/>
-        <v>3520040000</v>
+        <f t="shared" si="2"/>
+        <v>164000</v>
       </c>
       <c r="L30">
-        <v>90000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>32800</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2138,18 +2166,18 @@
         <v>19</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="0"/>
-        <v>23.1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>19</v>
       </c>
       <c r="F31" t="s">
         <v>36</v>
       </c>
       <c r="G31">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="I31" s="1">
@@ -2159,11 +2187,12 @@
         <v>65</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="1"/>
-        <v>220010000</v>
+        <f t="shared" si="2"/>
+        <v>41000</v>
       </c>
       <c r="L31">
-        <v>28000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4100</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2180,18 +2209,18 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>17.399999999999999</v>
       </c>
       <c r="F32" t="s">
         <v>30</v>
       </c>
       <c r="G32">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="I32" s="1">
@@ -2201,11 +2230,12 @@
         <v>80</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="1"/>
-        <v>495015000</v>
+        <f t="shared" si="2"/>
+        <v>61500</v>
       </c>
       <c r="L32">
-        <v>45000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>18450</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2222,18 +2252,18 @@
         <v>23</v>
       </c>
       <c r="E33">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>19.5</v>
       </c>
       <c r="F33" t="s">
         <v>46</v>
       </c>
       <c r="G33">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="1"/>
         <v>125000</v>
       </c>
       <c r="I33" s="1">
@@ -2243,11 +2273,12 @@
         <v>40</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="1"/>
-        <v>34375125000</v>
+        <f t="shared" si="2"/>
+        <v>512500</v>
       </c>
       <c r="L33">
-        <v>320000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>153750</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2264,18 +2295,18 @@
         <v>19</v>
       </c>
       <c r="E34">
-        <f t="shared" ca="1" si="0"/>
-        <v>24.4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>22.9</v>
       </c>
       <c r="F34" t="s">
         <v>27</v>
       </c>
       <c r="G34">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="1"/>
         <v>35000</v>
       </c>
       <c r="I34" s="1">
@@ -2285,11 +2316,12 @@
         <v>55</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="1"/>
-        <v>2695035000</v>
+        <f t="shared" si="2"/>
+        <v>143500</v>
       </c>
       <c r="L34">
-        <v>90000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>28700</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2306,18 +2338,18 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14.3</v>
       </c>
       <c r="F35" t="s">
         <v>36</v>
       </c>
       <c r="G35">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="1"/>
         <v>60000</v>
       </c>
       <c r="I35" s="1">
@@ -2327,11 +2359,12 @@
         <v>70</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="1"/>
-        <v>7920060000</v>
+        <f t="shared" si="2"/>
+        <v>246000</v>
       </c>
       <c r="L35">
-        <v>130000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>73800</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2348,18 +2381,18 @@
         <v>23</v>
       </c>
       <c r="E36">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27.9</v>
       </c>
       <c r="F36" t="s">
         <v>33</v>
       </c>
       <c r="G36">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
       <c r="I36" s="1">
@@ -2369,11 +2402,12 @@
         <v>90</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="1"/>
-        <v>1375025000.0000002</v>
+        <f t="shared" si="2"/>
+        <v>102500</v>
       </c>
       <c r="L36">
-        <v>65000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30750</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2390,18 +2424,18 @@
         <v>19</v>
       </c>
       <c r="E37">
-        <f t="shared" ca="1" si="0"/>
-        <v>18.100000000000001</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12.8</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
       </c>
       <c r="G37">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="1"/>
         <v>40000</v>
       </c>
       <c r="I37" s="1">
@@ -2411,11 +2445,12 @@
         <v>30</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="1"/>
-        <v>3520040000</v>
+        <f t="shared" si="2"/>
+        <v>164000</v>
       </c>
       <c r="L37">
-        <v>90000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>32800</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2432,18 +2467,18 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <f t="shared" ca="1" si="0"/>
-        <v>23.8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10.199999999999999</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
       </c>
       <c r="G38">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
       <c r="I38" s="1">
@@ -2453,11 +2488,12 @@
         <v>50</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="1"/>
-        <v>1980030000</v>
+        <f t="shared" si="2"/>
+        <v>123000</v>
       </c>
       <c r="L38">
-        <v>70000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>36900</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2474,18 +2510,18 @@
         <v>23</v>
       </c>
       <c r="E39">
-        <f t="shared" ca="1" si="0"/>
-        <v>17.100000000000001</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>19.7</v>
       </c>
       <c r="F39" t="s">
         <v>46</v>
       </c>
       <c r="G39">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="1"/>
         <v>60000</v>
       </c>
       <c r="I39" s="1">
@@ -2495,11 +2531,12 @@
         <v>35</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="1"/>
-        <v>7920060000</v>
+        <f t="shared" si="2"/>
+        <v>246000</v>
       </c>
       <c r="L39">
-        <v>130000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>24600</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2516,18 +2553,18 @@
         <v>15</v>
       </c>
       <c r="E40">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>19</v>
       </c>
       <c r="F40" t="s">
         <v>30</v>
       </c>
       <c r="G40">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="1"/>
         <v>75000</v>
       </c>
       <c r="I40" s="1">
@@ -2537,11 +2574,12 @@
         <v>60</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="1"/>
-        <v>12375075000</v>
+        <f t="shared" si="2"/>
+        <v>307500</v>
       </c>
       <c r="L40">
-        <v>180000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30750</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2558,18 +2596,18 @@
         <v>19</v>
       </c>
       <c r="E41">
-        <f t="shared" ca="1" si="0"/>
-        <v>21.3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16.399999999999999</v>
       </c>
       <c r="F41" t="s">
         <v>36</v>
       </c>
       <c r="G41">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="2">
-        <f t="shared" si="3"/>
+      <c r="H41" s="1">
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="I41" s="1">
@@ -2579,11 +2617,12 @@
         <v>25</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="1"/>
-        <v>22000100000.000004</v>
+        <f t="shared" si="2"/>
+        <v>410000</v>
       </c>
       <c r="L41">
-        <v>230000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>41000</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2600,18 +2639,18 @@
         <v>23</v>
       </c>
       <c r="E42">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.100000000000001</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>26.6</v>
       </c>
       <c r="F42" t="s">
         <v>27</v>
       </c>
       <c r="G42">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="1"/>
         <v>75000</v>
       </c>
       <c r="I42" s="1">
@@ -2621,11 +2660,12 @@
         <v>75</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="1"/>
-        <v>12375075000</v>
+        <f t="shared" si="2"/>
+        <v>307500</v>
       </c>
       <c r="L42">
-        <v>180000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2642,18 +2682,18 @@
         <v>15</v>
       </c>
       <c r="E43">
-        <f t="shared" ca="1" si="0"/>
-        <v>22.9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>26.2</v>
       </c>
       <c r="F43" t="s">
         <v>30</v>
       </c>
       <c r="G43">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
       <c r="I43" s="1">
@@ -2663,11 +2703,12 @@
         <v>85</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="1"/>
-        <v>1980030000</v>
+        <f t="shared" si="2"/>
+        <v>123000</v>
       </c>
       <c r="L43">
-        <v>70000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>24600</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2684,18 +2725,18 @@
         <v>23</v>
       </c>
       <c r="E44">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16.5</v>
       </c>
       <c r="F44" t="s">
         <v>36</v>
       </c>
       <c r="G44">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="I44" s="1">
@@ -2705,11 +2746,12 @@
         <v>100</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="1"/>
-        <v>220010000</v>
+        <f t="shared" si="2"/>
+        <v>41000</v>
       </c>
       <c r="L44">
-        <v>28000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>12300</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2726,18 +2768,18 @@
         <v>19</v>
       </c>
       <c r="E45">
-        <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12.5</v>
       </c>
       <c r="F45" t="s">
         <v>68</v>
       </c>
       <c r="G45">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="1"/>
         <v>60000</v>
       </c>
       <c r="I45" s="1">
@@ -2747,11 +2789,12 @@
         <v>55</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="1"/>
-        <v>7920060000</v>
+        <f t="shared" si="2"/>
+        <v>246000</v>
       </c>
       <c r="L45">
-        <v>130000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>73800</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2768,18 +2811,18 @@
         <v>15</v>
       </c>
       <c r="E46">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.600000000000001</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6.5</v>
       </c>
       <c r="F46" t="s">
         <v>30</v>
       </c>
       <c r="G46">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="I46" s="1">
@@ -2789,11 +2832,12 @@
         <v>65</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" si="1"/>
-        <v>495015000</v>
+        <f t="shared" si="2"/>
+        <v>61500</v>
       </c>
       <c r="L46">
-        <v>45000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2810,18 +2854,18 @@
         <v>23</v>
       </c>
       <c r="E47">
-        <f t="shared" ca="1" si="0"/>
-        <v>23.2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>28.8</v>
       </c>
       <c r="F47" t="s">
         <v>87</v>
       </c>
       <c r="G47">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="I47" s="1">
@@ -2831,11 +2875,12 @@
         <v>80</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="1"/>
-        <v>880020000</v>
+        <f t="shared" si="2"/>
+        <v>82000</v>
       </c>
       <c r="L47">
-        <v>55000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>24600</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2852,18 +2897,18 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.600000000000001</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>17.2</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
       <c r="I48" s="1">
@@ -2873,11 +2918,12 @@
         <v>95</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="1"/>
-        <v>1375025000.0000002</v>
+        <f t="shared" si="2"/>
+        <v>102500</v>
       </c>
       <c r="L48">
-        <v>65000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30750</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2894,18 +2940,18 @@
         <v>23</v>
       </c>
       <c r="E49">
-        <f t="shared" ca="1" si="0"/>
-        <v>20.399999999999999</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11.3</v>
       </c>
       <c r="F49" t="s">
         <v>36</v>
       </c>
       <c r="G49">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="I49" s="1">
@@ -2915,11 +2961,12 @@
         <v>110</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="1"/>
-        <v>495015000</v>
+        <f t="shared" si="2"/>
+        <v>61500</v>
       </c>
       <c r="L49">
-        <v>45000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>18450</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2936,18 +2983,18 @@
         <v>19</v>
       </c>
       <c r="E50">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>26.3</v>
       </c>
       <c r="F50" t="s">
         <v>30</v>
       </c>
       <c r="G50">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H50" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="1"/>
         <v>400000</v>
       </c>
       <c r="I50" s="1">
@@ -2957,11 +3004,12 @@
         <v>40</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="1"/>
-        <v>352000400000.00006</v>
+        <f t="shared" si="2"/>
+        <v>1640000</v>
       </c>
       <c r="L50">
-        <v>900000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2978,18 +3026,18 @@
         <v>15</v>
       </c>
       <c r="E51">
-        <f t="shared" ca="1" si="0"/>
-        <v>27.1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>23.4</v>
       </c>
       <c r="F51" t="s">
         <v>30</v>
       </c>
       <c r="G51">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="1"/>
         <v>40000</v>
       </c>
       <c r="I51" s="1">
@@ -2999,11 +3047,12 @@
         <v>70</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="1"/>
-        <v>3520040000</v>
+        <f t="shared" si="2"/>
+        <v>164000</v>
       </c>
       <c r="L51">
-        <v>90000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16400</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3020,18 +3069,18 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>18.100000000000001</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
       </c>
       <c r="G52">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="1"/>
         <v>60000</v>
       </c>
       <c r="I52" s="1">
@@ -3041,11 +3090,12 @@
         <v>70</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="1"/>
-        <v>7920060000</v>
+        <f t="shared" si="2"/>
+        <v>246000</v>
       </c>
       <c r="L52">
-        <v>140000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>73800</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3062,18 +3112,18 @@
         <v>23</v>
       </c>
       <c r="E53">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6999999999999993</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6.8</v>
       </c>
       <c r="F53" t="s">
         <v>46</v>
       </c>
       <c r="G53">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="I53" s="1">
@@ -3083,11 +3133,12 @@
         <v>12</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="1"/>
-        <v>495015000</v>
+        <f t="shared" si="2"/>
+        <v>61500</v>
       </c>
       <c r="L53">
-        <v>3300000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -3104,18 +3155,18 @@
         <v>19</v>
       </c>
       <c r="E54">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7.2</v>
       </c>
       <c r="F54" t="s">
         <v>30</v>
       </c>
       <c r="G54">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H54" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="I54" s="1">
@@ -3125,11 +3176,12 @@
         <v>18</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="1"/>
-        <v>880020000</v>
+        <f t="shared" si="2"/>
+        <v>82000</v>
       </c>
       <c r="L54">
-        <v>4300000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8200</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3146,18 +3198,18 @@
         <v>15</v>
       </c>
       <c r="E55">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>26.6</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H55" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="1"/>
         <v>40000</v>
       </c>
       <c r="I55" s="1">
@@ -3167,11 +3219,12 @@
         <v>40</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="1"/>
-        <v>3520040000</v>
+        <f t="shared" si="2"/>
+        <v>164000</v>
       </c>
       <c r="L55">
-        <v>95000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>32800</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3188,18 +3241,18 @@
         <v>23</v>
       </c>
       <c r="E56">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F56" t="s">
         <v>20</v>
       </c>
       <c r="G56">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H56" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="1"/>
         <v>750000</v>
       </c>
       <c r="I56" s="1">
@@ -3209,11 +3262,12 @@
         <v>25</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="1"/>
-        <v>1237500750000.0002</v>
+        <f t="shared" si="2"/>
+        <v>3075000</v>
       </c>
       <c r="L56">
-        <v>1700000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>922500</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -3230,18 +3284,18 @@
         <v>19</v>
       </c>
       <c r="E57">
-        <f t="shared" ca="1" si="0"/>
-        <v>26.3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27.8</v>
       </c>
       <c r="F57" t="s">
         <v>141</v>
       </c>
       <c r="G57">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="1"/>
         <v>125000</v>
       </c>
       <c r="I57" s="1">
@@ -3251,11 +3305,12 @@
         <v>15</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="1"/>
-        <v>34375125000</v>
+        <f t="shared" si="2"/>
+        <v>512500</v>
       </c>
       <c r="L57">
-        <v>280000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>153750</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -3272,18 +3327,18 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6999999999999993</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>15.4</v>
       </c>
       <c r="F58" t="s">
         <v>30</v>
       </c>
       <c r="G58">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H58" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="1"/>
         <v>350000</v>
       </c>
       <c r="I58" s="1">
@@ -3293,11 +3348,12 @@
         <v>30</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="1"/>
-        <v>269500350000.00003</v>
+        <f t="shared" si="2"/>
+        <v>1435000</v>
       </c>
       <c r="L58">
-        <v>850000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3314,18 +3370,18 @@
         <v>23</v>
       </c>
       <c r="E59">
-        <f t="shared" ca="1" si="0"/>
-        <v>23.4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11.4</v>
       </c>
       <c r="F59" t="s">
         <v>36</v>
       </c>
       <c r="G59">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="H59" s="2">
-        <f t="shared" si="3"/>
+      <c r="H59" s="1">
+        <f t="shared" si="1"/>
         <v>150000</v>
       </c>
       <c r="I59" s="1">
@@ -3335,11 +3391,12 @@
         <v>50</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="1"/>
-        <v>49500150000</v>
+        <f t="shared" si="2"/>
+        <v>615000</v>
       </c>
       <c r="L59">
-        <v>380000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>61500</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3356,18 +3413,18 @@
         <v>19</v>
       </c>
       <c r="E60">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.8000000000000007</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>22.9</v>
       </c>
       <c r="F60" t="s">
         <v>30</v>
       </c>
       <c r="G60">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H60" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="1"/>
         <v>75000</v>
       </c>
       <c r="I60" s="1">
@@ -3377,11 +3434,12 @@
         <v>90</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="1"/>
-        <v>12375075000</v>
+        <f t="shared" si="2"/>
+        <v>307500</v>
       </c>
       <c r="L60">
-        <v>180000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30750</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3398,18 +3456,18 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20.9</v>
       </c>
       <c r="F61" t="s">
         <v>33</v>
       </c>
       <c r="G61">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H61" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="1"/>
         <v>300000</v>
       </c>
       <c r="I61" s="1">
@@ -3419,11 +3477,12 @@
         <v>20</v>
       </c>
       <c r="K61" s="1">
-        <f t="shared" si="1"/>
-        <v>198000300000</v>
+        <f t="shared" si="2"/>
+        <v>1230000</v>
       </c>
       <c r="L61">
-        <v>700000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>246000</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3440,18 +3499,18 @@
         <v>23</v>
       </c>
       <c r="E62">
-        <f t="shared" ca="1" si="0"/>
-        <v>19.3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>23.8</v>
       </c>
       <c r="F62" t="s">
         <v>20</v>
       </c>
       <c r="G62">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H62" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="I62" s="1">
@@ -3461,11 +3520,12 @@
         <v>35</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="1"/>
-        <v>22000100000.000004</v>
+        <f t="shared" si="2"/>
+        <v>410000</v>
       </c>
       <c r="L62">
-        <v>230000</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>123000</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/import/SanPham.xlsx
+++ b/src/main/resources/import/SanPham.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Downloads\tesst\QuanLyHieuSach\src\main\resources\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E5C102-CC30-4A5B-91C6-EC3CB90845C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABC35C9-C79D-4754-8682-3E64C53CD20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4A98E7E-91B4-4117-82EF-535CA966D02F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="90">
   <si>
     <t>idSanPham</t>
   </si>
@@ -74,9 +74,6 @@
     <t>giaKhuyenMai</t>
   </si>
   <si>
-    <t>SP202311140001</t>
-  </si>
-  <si>
     <t>Đèn trang trí phòng ngủ</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>Vàng</t>
   </si>
   <si>
-    <t>SP202311140002</t>
-  </si>
-  <si>
     <t>Bàn là hơi nước</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>Trắng</t>
   </si>
   <si>
-    <t>SP202311140003</t>
-  </si>
-  <si>
     <t>Điều hòa không khí</t>
   </si>
   <si>
@@ -113,379 +104,205 @@
     <t>Xanh</t>
   </si>
   <si>
-    <t>SP202311140004</t>
-  </si>
-  <si>
     <t>Túi xách da thật</t>
   </si>
   <si>
     <t>Nâu</t>
   </si>
   <si>
-    <t>SP202311140005</t>
-  </si>
-  <si>
     <t>Loa Bluetooth di động</t>
   </si>
   <si>
     <t>Đen</t>
   </si>
   <si>
-    <t>SP202311140006</t>
-  </si>
-  <si>
     <t>Quạt mini USB</t>
   </si>
   <si>
     <t>Đỏ</t>
   </si>
   <si>
-    <t>SP202311140007</t>
-  </si>
-  <si>
     <t>Ốp lưng điện thoại</t>
   </si>
   <si>
     <t>Hồng</t>
   </si>
   <si>
-    <t>SP202311140008</t>
-  </si>
-  <si>
     <t>Máy pha cà phê</t>
   </si>
   <si>
-    <t>SP202311140009</t>
-  </si>
-  <si>
     <t>Đồng hồ đeo tay</t>
   </si>
   <si>
     <t>Bạc</t>
   </si>
   <si>
-    <t>SP202311140010</t>
-  </si>
-  <si>
     <t>Gối ôm hình thú</t>
   </si>
   <si>
-    <t>SP202311140011</t>
-  </si>
-  <si>
     <t>Kính mát thời trang</t>
   </si>
   <si>
     <t>Xám</t>
   </si>
   <si>
-    <t>SP202311140012</t>
-  </si>
-  <si>
     <t>Túi xách laptop</t>
   </si>
   <si>
-    <t>SP202311140013</t>
-  </si>
-  <si>
     <t>Chuột máy tính không dây</t>
   </si>
   <si>
-    <t>SP202311140014</t>
-  </si>
-  <si>
     <t>Nước hoa nữ</t>
   </si>
   <si>
     <t>Hương hoa</t>
   </si>
   <si>
-    <t>SP202311140015</t>
-  </si>
-  <si>
     <t>Ổ cắm điện thông minh</t>
   </si>
   <si>
-    <t>SP202311140016</t>
-  </si>
-  <si>
     <t>Kem chống nắng</t>
   </si>
   <si>
-    <t>SP202311140017</t>
-  </si>
-  <si>
     <t>Đồng hồ báo thức</t>
   </si>
   <si>
-    <t>SP202311140018</t>
-  </si>
-  <si>
     <t>Sạc dự phòng 10000mAh</t>
   </si>
   <si>
-    <t>SP202311140019</t>
-  </si>
-  <si>
     <t>Chảo chống dính</t>
   </si>
   <si>
-    <t>SP202311140020</t>
-  </si>
-  <si>
     <t>Túi đựng mỹ phẩm</t>
   </si>
   <si>
-    <t>SP202311140021</t>
-  </si>
-  <si>
     <t>Bình nước thể thao</t>
   </si>
   <si>
     <t>Xanh dương</t>
   </si>
   <si>
-    <t>SP202311140022</t>
-  </si>
-  <si>
     <t>Miếng dán tường hình hoa</t>
   </si>
   <si>
     <t>Nhiều màu</t>
   </si>
   <si>
-    <t>SP202311140023</t>
-  </si>
-  <si>
     <t>Găng tay mùa đông</t>
   </si>
   <si>
-    <t>SP202311140024</t>
-  </si>
-  <si>
     <t>Thước kẻ</t>
   </si>
   <si>
-    <t>SP202311140025</t>
-  </si>
-  <si>
     <t>Khăn trải bàn</t>
   </si>
   <si>
-    <t>SP202311140026</t>
-  </si>
-  <si>
     <t>Bảng flipchart</t>
   </si>
   <si>
-    <t>SP202311140027</t>
-  </si>
-  <si>
     <t>Sổ tay da bò</t>
   </si>
   <si>
     <t>Kem</t>
   </si>
   <si>
-    <t>SP202311140028</t>
-  </si>
-  <si>
     <t>Thảm trải sàn phòng khách</t>
   </si>
   <si>
-    <t>SP202311140029</t>
-  </si>
-  <si>
     <t>Ốp lưng máy tính bảng</t>
   </si>
   <si>
     <t>Xanh lá</t>
   </si>
   <si>
-    <t>SP202311140030</t>
-  </si>
-  <si>
     <t>Miếng lót chuột</t>
   </si>
   <si>
-    <t>SP202311140031</t>
-  </si>
-  <si>
     <t>Dây cáp sạc nhanh</t>
   </si>
   <si>
-    <t>SP202311140032</t>
-  </si>
-  <si>
     <t>Cặp xách công sở</t>
   </si>
   <si>
-    <t>SP202311140033</t>
-  </si>
-  <si>
     <t>Kính chống tia UV</t>
   </si>
   <si>
-    <t>SP202311140034</t>
-  </si>
-  <si>
     <t>Gương trang điểm</t>
   </si>
   <si>
-    <t>SP202311140035</t>
-  </si>
-  <si>
     <t>Bình phun nước hoa hồng</t>
   </si>
   <si>
-    <t>SP202311140036</t>
-  </si>
-  <si>
     <t>Ổ cắm điện đa năng</t>
   </si>
   <si>
-    <t>SP202311140037</t>
-  </si>
-  <si>
     <t>Khay đựng đồ trang điểm</t>
   </si>
   <si>
-    <t>SP202311140038</t>
-  </si>
-  <si>
     <t>Gối tựa lưng sofa</t>
   </si>
   <si>
-    <t>SP202311140039</t>
-  </si>
-  <si>
     <t>Ổ cắm điện thông minh WiFi</t>
   </si>
   <si>
-    <t>SP202311140040</t>
-  </si>
-  <si>
     <t>Máy sấy tóc</t>
   </si>
   <si>
-    <t>SP202311140041</t>
-  </si>
-  <si>
     <t>Túi đựng laptop chống sốc</t>
   </si>
   <si>
-    <t>SP202311140042</t>
-  </si>
-  <si>
     <t>Chuột máy tính có dây</t>
   </si>
   <si>
-    <t>SP202311140043</t>
-  </si>
-  <si>
     <t>Khăn mặt bông nhung</t>
   </si>
   <si>
-    <t>SP202311140044</t>
-  </si>
-  <si>
     <t>Túi xách du lịch</t>
   </si>
   <si>
-    <t>SP202311140045</t>
-  </si>
-  <si>
     <t>Kính lúp đeo mắt</t>
   </si>
   <si>
-    <t>SP202311140046</t>
-  </si>
-  <si>
     <t>Dây loa đa năng</t>
   </si>
   <si>
-    <t>SP202311140047</t>
-  </si>
-  <si>
     <t>Thước đo chiều dài cánh cửa</t>
   </si>
   <si>
-    <t>SP202311140048</t>
-  </si>
-  <si>
     <t>Gối trang trí hình con thỏ</t>
   </si>
   <si>
-    <t>SP202311140049</t>
-  </si>
-  <si>
     <t>Máy làm sữa đậu nành</t>
   </si>
   <si>
-    <t>SP202311140050</t>
-  </si>
-  <si>
     <t>Nón snapback hiphop</t>
   </si>
   <si>
-    <t>SP202311130051</t>
-  </si>
-  <si>
     <t>Đèn đọc sách LED</t>
   </si>
   <si>
-    <t>SP202311130052</t>
-  </si>
-  <si>
     <t>Ghế sofa phòng khách</t>
   </si>
   <si>
-    <t>SP202311130053</t>
-  </si>
-  <si>
     <t>Máy pha cà phê espresso</t>
   </si>
   <si>
-    <t>SP202311130054</t>
-  </si>
-  <si>
     <t>Bình hoa trang trí</t>
   </si>
   <si>
-    <t>SP202311130055</t>
-  </si>
-  <si>
     <t>Ống kính máy ảnh Nikon</t>
   </si>
   <si>
-    <t>SP202311130056</t>
-  </si>
-  <si>
     <t>Xanh lá cây</t>
   </si>
   <si>
-    <t>SP202311130057</t>
-  </si>
-  <si>
-    <t>SP202311130058</t>
-  </si>
-  <si>
     <t>Túi xách laptop chống sốc</t>
   </si>
   <si>
-    <t>SP202311130059</t>
-  </si>
-  <si>
     <t>Quần áo thể thao nam</t>
   </si>
   <si>
-    <t>SP202311130060</t>
-  </si>
-  <si>
     <t>Máy sấy tóc chuyên nghiệp</t>
-  </si>
-  <si>
-    <t>SP202311130061</t>
   </si>
   <si>
     <t>Gương trang điểm LED</t>
@@ -496,7 +313,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0\ &quot;₫&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;₫&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -530,7 +347,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -848,7 +665,7 @@
   <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -864,7 +681,7 @@
     <col min="9" max="9" width="12.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -901,33 +718,34 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="str">
+        <f ca="1">"SP" &amp; TEXT(TODAY(), "yyyyMMdd") &amp; TEXT(ROW(A1), "0000")</f>
+        <v>SP202311250001</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
       <c r="E2">
         <f ca="1">ROUND(RAND()*(30-5)+5, 1)</f>
-        <v>15.6</v>
+        <v>28.1</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <f ca="1">IF(RAND() &lt;= 0.8, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
         <f>I2*0.5</f>
@@ -943,37 +761,38 @@
         <f>I2+(I2*0.55)+H2</f>
         <v>369000</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <f ca="1">ROUNDUP(K2 * CHOOSE(RANDBETWEEN(1, 4),0.1, 0.2, 0.3,0), 2)</f>
-        <v>0</v>
+        <v>36900</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A62" ca="1" si="0">"SP" &amp; TEXT(TODAY(), "yyyyMMdd") &amp; TEXT(ROW(A2), "0000")</f>
+        <v>SP202311250002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
       </c>
       <c r="E3">
         <f ca="1">ROUND(RAND()*(30-5)+5, 1)</f>
-        <v>12.8</v>
+        <v>8.5</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G62" ca="1" si="0">IF(RAND() &lt;= 0.8, 1, 0)</f>
-        <v>0</v>
+        <f t="shared" ref="G3:G62" ca="1" si="1">IF(RAND() &lt;= 0.8, 1, 0)</f>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H62" si="1">I3*0.5</f>
+        <f t="shared" ref="H3:H62" si="2">I3*0.5</f>
         <v>250000</v>
       </c>
       <c r="I3" s="1">
@@ -983,40 +802,41 @@
         <v>25</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K62" si="2">I3+(I3*0.55)+H3</f>
+        <f t="shared" ref="K3:K62" si="3">I3+(I3*0.55)+H3</f>
         <v>1025000</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L62" ca="1" si="3">ROUNDUP(K3 * CHOOSE(RANDBETWEEN(1, 4),0.1, 0.2, 0.3,0), 2)</f>
-        <v>307500</v>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L62" ca="1" si="4">ROUNDUP(K3 * CHOOSE(RANDBETWEEN(1, 4),0.1, 0.2, 0.3,0), 2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E62" ca="1" si="5">ROUND(RAND()*(30-5)+5, 1)</f>
+        <v>13.6</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E62" ca="1" si="4">ROUND(RAND()*(30-5)+5, 1)</f>
-        <v>15.3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
       <c r="G4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35000</v>
       </c>
       <c r="I4" s="1">
@@ -1026,40 +846,41 @@
         <v>10</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>143500</v>
       </c>
-      <c r="L4">
-        <f t="shared" ca="1" si="3"/>
-        <v>28700</v>
+      <c r="L4" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
+      <c r="A5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250004</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
       <c r="E5">
-        <f t="shared" ca="1" si="4"/>
-        <v>15.7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.2</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>400000</v>
       </c>
       <c r="I5" s="1">
@@ -1069,40 +890,41 @@
         <v>40</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1640000</v>
       </c>
-      <c r="L5">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+      <c r="L5" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>164000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
+      <c r="A6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250005</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="4"/>
-        <v>23.9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150000</v>
       </c>
       <c r="I6" s="1">
@@ -1112,40 +934,41 @@
         <v>30</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>615000</v>
       </c>
-      <c r="L6">
-        <f t="shared" ca="1" si="3"/>
-        <v>123000</v>
+      <c r="L6" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
+      <c r="A7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250006</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.3000000000000007</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>24.3</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35000</v>
       </c>
       <c r="I7" s="1">
@@ -1155,40 +978,41 @@
         <v>60</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>143500</v>
       </c>
-      <c r="L7">
-        <f t="shared" ca="1" si="3"/>
-        <v>43050</v>
+      <c r="L7" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
+      <c r="A8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250007</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
       <c r="E8">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>24.8</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25000</v>
       </c>
       <c r="I8" s="1">
@@ -1198,40 +1022,41 @@
         <v>80</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>102500</v>
       </c>
-      <c r="L8">
-        <f t="shared" ca="1" si="3"/>
-        <v>10250</v>
+      <c r="L8" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
+      <c r="A9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250008</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="4"/>
-        <v>18.399999999999999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10.8</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750000</v>
       </c>
       <c r="I9" s="1">
@@ -1241,40 +1066,41 @@
         <v>15</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3075000</v>
       </c>
-      <c r="L9">
-        <f t="shared" ca="1" si="3"/>
-        <v>307500</v>
+      <c r="L9" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>615000</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
+      <c r="A10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250009</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="4"/>
-        <v>16.600000000000001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>25.7</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="I10" s="1">
@@ -1284,40 +1110,41 @@
         <v>70</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>410000</v>
       </c>
-      <c r="L10">
-        <f t="shared" ca="1" si="3"/>
-        <v>41000</v>
+      <c r="L10" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>82000</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>42</v>
+      <c r="A11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250010</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
       <c r="E11">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>25.9</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60000</v>
       </c>
       <c r="I11" s="1">
@@ -1327,40 +1154,41 @@
         <v>90</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>246000</v>
       </c>
-      <c r="L11">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L11" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>24600</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>44</v>
+      <c r="A12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250011</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="4"/>
-        <v>22.8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>13.6</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45000</v>
       </c>
       <c r="I12" s="1">
@@ -1370,40 +1198,41 @@
         <v>120</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>184500</v>
       </c>
-      <c r="L12">
-        <f t="shared" ca="1" si="3"/>
-        <v>36900</v>
+      <c r="L12" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>55350</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>47</v>
+      <c r="A13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250012</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="4"/>
-        <v>16.8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>14.7</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150000</v>
       </c>
       <c r="I13" s="1">
@@ -1413,40 +1242,41 @@
         <v>35</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>615000</v>
       </c>
-      <c r="L13">
-        <f t="shared" ca="1" si="3"/>
-        <v>61500</v>
+      <c r="L13" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>49</v>
+      <c r="A14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250013</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="4"/>
-        <v>18.5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>16.5</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60000</v>
       </c>
       <c r="I14" s="1">
@@ -1456,40 +1286,41 @@
         <v>65</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>246000</v>
       </c>
-      <c r="L14">
-        <f t="shared" ca="1" si="3"/>
-        <v>49200</v>
+      <c r="L14" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>51</v>
+      <c r="A15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250014</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="4"/>
-        <v>27.2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>23.1</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>175000</v>
       </c>
       <c r="I15" s="1">
@@ -1499,40 +1330,41 @@
         <v>20</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>717500</v>
       </c>
-      <c r="L15">
-        <f t="shared" ca="1" si="3"/>
-        <v>143500</v>
+      <c r="L15" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>71750</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>54</v>
+      <c r="A16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250015</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
       <c r="E16">
-        <f t="shared" ca="1" si="4"/>
-        <v>26.2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.8</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125000</v>
       </c>
       <c r="I16" s="1">
@@ -1542,40 +1374,41 @@
         <v>55</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>512500</v>
       </c>
-      <c r="L16">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L16" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>153750</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>56</v>
+      <c r="A17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250016</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="4"/>
-        <v>24.3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10.1</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125000</v>
       </c>
       <c r="I17" s="1">
@@ -1585,40 +1418,41 @@
         <v>10</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>512500</v>
       </c>
-      <c r="L17">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L17" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>102500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
       <c r="I18" s="1">
@@ -1628,40 +1462,41 @@
         <v>85</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>164000</v>
       </c>
-      <c r="L18">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L18" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>32800</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>60</v>
+      <c r="A19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250018</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="4"/>
-        <v>23.9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>26.7</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="I19" s="1">
@@ -1671,40 +1506,41 @@
         <v>40</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>410000</v>
       </c>
-      <c r="L19">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+      <c r="L19" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>123000</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>62</v>
+      <c r="A20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250019</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8.5</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90000</v>
       </c>
       <c r="I20" s="1">
@@ -1714,40 +1550,41 @@
         <v>30</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>369000</v>
       </c>
-      <c r="L20">
-        <f t="shared" ca="1" si="3"/>
-        <v>36900</v>
+      <c r="L20" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>110700</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>64</v>
+      <c r="A21" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250020</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
       <c r="E21">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>22.3</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G21">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60000</v>
       </c>
       <c r="I21" s="1">
@@ -1757,40 +1594,41 @@
         <v>65</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>246000</v>
       </c>
-      <c r="L21">
-        <f t="shared" ca="1" si="3"/>
-        <v>24600</v>
+      <c r="L21" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>73800</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>66</v>
+      <c r="A22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250021</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="4"/>
-        <v>13.7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="G22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25000</v>
       </c>
       <c r="I22" s="1">
@@ -1800,40 +1638,41 @@
         <v>95</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>102500</v>
       </c>
-      <c r="L22">
-        <f t="shared" ca="1" si="3"/>
-        <v>30750</v>
+      <c r="L22" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>10250</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>69</v>
+      <c r="A23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250022</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
         <v>14</v>
       </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
       <c r="E23">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.6</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G23">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12500</v>
       </c>
       <c r="I23" s="1">
@@ -1843,40 +1682,41 @@
         <v>110</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51250</v>
       </c>
-      <c r="L23">
-        <f t="shared" ca="1" si="3"/>
-        <v>10250</v>
+      <c r="L23" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>5125</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>72</v>
+      <c r="A24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250023</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="4"/>
-        <v>26.2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>14.6</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G24">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
       <c r="I24" s="1">
@@ -1886,40 +1726,41 @@
         <v>50</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>164000</v>
       </c>
-      <c r="L24">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L24" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>49200</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>74</v>
+      <c r="A25" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250024</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="4"/>
-        <v>29.6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>15.9</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15000</v>
       </c>
       <c r="I25" s="1">
@@ -1929,40 +1770,41 @@
         <v>70</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61500</v>
       </c>
-      <c r="L25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+      <c r="L25" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>18450</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>76</v>
+      <c r="A26" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250025</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
         <v>14</v>
       </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
       <c r="E26">
-        <f t="shared" ca="1" si="4"/>
-        <v>25.7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>29.3</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G26">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17500</v>
       </c>
       <c r="I26" s="1">
@@ -1972,40 +1814,41 @@
         <v>80</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>71750</v>
       </c>
-      <c r="L26">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L26" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>21525</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>78</v>
+      <c r="A27" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250026</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>25.7</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G27">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75000</v>
       </c>
       <c r="I27" s="1">
@@ -2015,40 +1858,41 @@
         <v>25</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>307500</v>
       </c>
-      <c r="L27">
-        <f t="shared" ca="1" si="3"/>
-        <v>61500</v>
+      <c r="L27" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>80</v>
+      <c r="A28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250027</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>17.7</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="G28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35000</v>
       </c>
       <c r="I28" s="1">
@@ -2058,40 +1902,41 @@
         <v>35</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>143500</v>
       </c>
-      <c r="L28">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L28" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>43050</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>83</v>
+      <c r="A29" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250028</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
       <c r="E29">
-        <f t="shared" ca="1" si="4"/>
-        <v>15.7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G29">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150000</v>
       </c>
       <c r="I29" s="1">
@@ -2101,40 +1946,41 @@
         <v>45</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>615000</v>
       </c>
-      <c r="L29">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L29" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>184500</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>85</v>
+      <c r="A30" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250029</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="4"/>
-        <v>27.7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>24.8</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="G30">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
       <c r="I30" s="1">
@@ -2144,40 +1990,41 @@
         <v>55</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>164000</v>
       </c>
-      <c r="L30">
-        <f t="shared" ca="1" si="3"/>
-        <v>32800</v>
+      <c r="L30" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>49200</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>88</v>
+      <c r="A31" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250030</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G31">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="I31" s="1">
@@ -2187,40 +2034,41 @@
         <v>65</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41000</v>
       </c>
-      <c r="L31">
-        <f t="shared" ca="1" si="3"/>
-        <v>4100</v>
+      <c r="L31" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>12300</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>90</v>
+      <c r="A32" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250031</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
         <v>14</v>
       </c>
-      <c r="D32" t="s">
-        <v>15</v>
-      </c>
       <c r="E32">
-        <f t="shared" ca="1" si="4"/>
-        <v>17.399999999999999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>15.8</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G32">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15000</v>
       </c>
       <c r="I32" s="1">
@@ -2230,40 +2078,41 @@
         <v>80</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61500</v>
       </c>
-      <c r="L32">
-        <f t="shared" ca="1" si="3"/>
-        <v>18450</v>
+      <c r="L32" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>12300</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>92</v>
+      <c r="A33" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250032</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E33">
-        <f t="shared" ca="1" si="4"/>
-        <v>19.5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>29.4</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G33">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125000</v>
       </c>
       <c r="I33" s="1">
@@ -2273,40 +2122,41 @@
         <v>40</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>512500</v>
       </c>
-      <c r="L33">
-        <f t="shared" ca="1" si="3"/>
-        <v>153750</v>
+      <c r="L33" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>94</v>
+      <c r="A34" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250033</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E34">
-        <f t="shared" ca="1" si="4"/>
-        <v>22.9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10.9</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G34">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35000</v>
       </c>
       <c r="I34" s="1">
@@ -2316,40 +2166,41 @@
         <v>55</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>143500</v>
       </c>
-      <c r="L34">
-        <f t="shared" ca="1" si="3"/>
-        <v>28700</v>
+      <c r="L34" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>96</v>
+      <c r="A35" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250034</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
         <v>14</v>
       </c>
-      <c r="D35" t="s">
-        <v>15</v>
-      </c>
       <c r="E35">
-        <f t="shared" ca="1" si="4"/>
-        <v>14.3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>26.8</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G35">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60000</v>
       </c>
       <c r="I35" s="1">
@@ -2359,40 +2210,41 @@
         <v>70</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>246000</v>
       </c>
-      <c r="L35">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L35" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>73800</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>98</v>
+      <c r="A36" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250035</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E36">
-        <f t="shared" ca="1" si="4"/>
-        <v>27.9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>12.9</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G36">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25000</v>
       </c>
       <c r="I36" s="1">
@@ -2402,40 +2254,41 @@
         <v>90</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>102500</v>
       </c>
-      <c r="L36">
-        <f t="shared" ca="1" si="3"/>
-        <v>30750</v>
+      <c r="L36" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>20500</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>100</v>
+      <c r="A37" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250036</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E37">
-        <f t="shared" ca="1" si="4"/>
-        <v>12.8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.4</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G37">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
       <c r="I37" s="1">
@@ -2445,40 +2298,41 @@
         <v>30</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>164000</v>
       </c>
-      <c r="L37">
-        <f t="shared" ca="1" si="3"/>
-        <v>32800</v>
+      <c r="L37" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>102</v>
+      <c r="A38" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250037</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
         <v>14</v>
       </c>
-      <c r="D38" t="s">
-        <v>15</v>
-      </c>
       <c r="E38">
-        <f t="shared" ca="1" si="4"/>
-        <v>10.199999999999999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>12.5</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G38">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
       <c r="I38" s="1">
@@ -2488,40 +2342,41 @@
         <v>50</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>123000</v>
       </c>
-      <c r="L38">
-        <f t="shared" ca="1" si="3"/>
-        <v>36900</v>
+      <c r="L38" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>104</v>
+      <c r="A39" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250038</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E39">
-        <f t="shared" ca="1" si="4"/>
-        <v>19.7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>16.399999999999999</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G39">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60000</v>
       </c>
       <c r="I39" s="1">
@@ -2531,40 +2386,41 @@
         <v>35</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>246000</v>
       </c>
-      <c r="L39">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L39" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>24600</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>106</v>
+      <c r="A40" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250039</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="D40" t="s">
-        <v>15</v>
-      </c>
       <c r="E40">
-        <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>23.3</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G40">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75000</v>
       </c>
       <c r="I40" s="1">
@@ -2574,40 +2430,41 @@
         <v>60</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>307500</v>
       </c>
-      <c r="L40">
-        <f t="shared" ca="1" si="3"/>
-        <v>30750</v>
+      <c r="L40" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>61500</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>108</v>
+      <c r="A41" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250040</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E41">
-        <f t="shared" ca="1" si="4"/>
-        <v>16.399999999999999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>13.5</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G41">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="I41" s="1">
@@ -2617,40 +2474,41 @@
         <v>25</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>410000</v>
       </c>
-      <c r="L41">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L41" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>41000</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>110</v>
+      <c r="A42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250041</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="5"/>
+        <v>22.4</v>
+      </c>
+      <c r="F42" t="s">
         <v>23</v>
       </c>
-      <c r="E42">
-        <f t="shared" ca="1" si="4"/>
-        <v>26.6</v>
-      </c>
-      <c r="F42" t="s">
-        <v>27</v>
-      </c>
       <c r="G42">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75000</v>
       </c>
       <c r="I42" s="1">
@@ -2660,40 +2518,41 @@
         <v>75</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>307500</v>
       </c>
-      <c r="L42">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L42" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>112</v>
+      <c r="A43" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250042</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
         <v>14</v>
       </c>
-      <c r="D43" t="s">
-        <v>15</v>
-      </c>
       <c r="E43">
-        <f t="shared" ca="1" si="4"/>
-        <v>26.2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>11.2</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G43">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
       <c r="I43" s="1">
@@ -2703,40 +2562,41 @@
         <v>85</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>123000</v>
       </c>
-      <c r="L43">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L43" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>24600</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>114</v>
+      <c r="A44" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250043</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E44">
-        <f t="shared" ca="1" si="4"/>
-        <v>16.5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G44">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="I44" s="1">
@@ -2746,40 +2606,41 @@
         <v>100</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41000</v>
       </c>
-      <c r="L44">
-        <f t="shared" ca="1" si="3"/>
-        <v>12300</v>
+      <c r="L44" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>8200</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>116</v>
+      <c r="A45" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250044</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E45">
-        <f t="shared" ca="1" si="4"/>
-        <v>12.5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="G45">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60000</v>
       </c>
       <c r="I45" s="1">
@@ -2789,40 +2650,41 @@
         <v>55</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>246000</v>
       </c>
-      <c r="L45">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L45" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>73800</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>118</v>
+      <c r="A46" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250045</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
         <v>14</v>
       </c>
-      <c r="D46" t="s">
-        <v>15</v>
-      </c>
       <c r="E46">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>16.5</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G46">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15000</v>
       </c>
       <c r="I46" s="1">
@@ -2832,40 +2694,41 @@
         <v>65</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61500</v>
       </c>
-      <c r="L46">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+      <c r="L46" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>18450</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>120</v>
+      <c r="A47" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250046</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E47">
-        <f t="shared" ca="1" si="4"/>
-        <v>28.8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>26.1</v>
       </c>
       <c r="F47" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="G47">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="I47" s="1">
@@ -2875,40 +2738,41 @@
         <v>80</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82000</v>
       </c>
-      <c r="L47">
-        <f t="shared" ca="1" si="3"/>
-        <v>24600</v>
+      <c r="L47" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>8200</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>122</v>
+      <c r="A48" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250047</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
         <v>14</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48">
+        <f t="shared" ca="1" si="5"/>
+        <v>24.2</v>
+      </c>
+      <c r="F48" t="s">
         <v>15</v>
       </c>
-      <c r="E48">
-        <f t="shared" ca="1" si="4"/>
-        <v>17.2</v>
-      </c>
-      <c r="F48" t="s">
-        <v>16</v>
-      </c>
       <c r="G48">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25000</v>
       </c>
       <c r="I48" s="1">
@@ -2918,40 +2782,41 @@
         <v>95</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>102500</v>
       </c>
-      <c r="L48">
-        <f t="shared" ca="1" si="3"/>
-        <v>30750</v>
+      <c r="L48" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>124</v>
+      <c r="A49" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250048</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E49">
-        <f t="shared" ca="1" si="4"/>
-        <v>11.3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>24.5</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G49">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15000</v>
       </c>
       <c r="I49" s="1">
@@ -2961,40 +2826,41 @@
         <v>110</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61500</v>
       </c>
-      <c r="L49">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L49" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>18450</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>126</v>
+      <c r="A50" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250049</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E50">
-        <f t="shared" ca="1" si="4"/>
-        <v>26.3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>16.5</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G50">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>400000</v>
       </c>
       <c r="I50" s="1">
@@ -3004,40 +2870,41 @@
         <v>40</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1640000</v>
       </c>
-      <c r="L50">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+      <c r="L50" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>164000</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>128</v>
+      <c r="A51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250050</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
         <v>14</v>
       </c>
-      <c r="D51" t="s">
-        <v>15</v>
-      </c>
       <c r="E51">
-        <f t="shared" ca="1" si="4"/>
-        <v>23.4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G51">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
       <c r="I51" s="1">
@@ -3047,40 +2914,41 @@
         <v>70</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>164000</v>
       </c>
-      <c r="L51">
-        <f t="shared" ca="1" si="3"/>
-        <v>16400</v>
+      <c r="L51" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>130</v>
+      <c r="A52" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250051</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
         <v>14</v>
       </c>
-      <c r="D52" t="s">
-        <v>15</v>
-      </c>
       <c r="E52">
-        <f t="shared" ca="1" si="4"/>
-        <v>18.100000000000001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G52">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60000</v>
       </c>
       <c r="I52" s="1">
@@ -3090,40 +2958,41 @@
         <v>70</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>246000</v>
       </c>
-      <c r="L52">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L52" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>73800</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>132</v>
+      <c r="A53" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250052</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E53">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10.1</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G53">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15000</v>
       </c>
       <c r="I53" s="1">
@@ -3133,40 +3002,41 @@
         <v>12</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61500</v>
       </c>
-      <c r="L53">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+      <c r="L53" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>6150</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>134</v>
+      <c r="A54" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250053</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E54">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>18.899999999999999</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G54">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="I54" s="1">
@@ -3176,40 +3046,41 @@
         <v>18</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82000</v>
       </c>
-      <c r="L54">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L54" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>8200</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>136</v>
+      <c r="A55" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250054</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
         <v>14</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.8</v>
+      </c>
+      <c r="F55" t="s">
         <v>15</v>
       </c>
-      <c r="E55">
-        <f t="shared" ca="1" si="4"/>
-        <v>26.6</v>
-      </c>
-      <c r="F55" t="s">
-        <v>16</v>
-      </c>
       <c r="G55">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
       <c r="I55" s="1">
@@ -3219,40 +3090,41 @@
         <v>40</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>164000</v>
       </c>
-      <c r="L55">
-        <f t="shared" ca="1" si="3"/>
-        <v>32800</v>
+      <c r="L55" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>49200</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>138</v>
+      <c r="A56" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250055</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E56">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.8000000000000007</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>20.9</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G56">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750000</v>
       </c>
       <c r="I56" s="1">
@@ -3262,40 +3134,41 @@
         <v>25</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3075000</v>
       </c>
-      <c r="L56">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L56" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>922500</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>140</v>
+      <c r="A57" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250056</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E57">
-        <f t="shared" ca="1" si="4"/>
-        <v>27.8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>22.6</v>
       </c>
       <c r="F57" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="G57">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125000</v>
       </c>
       <c r="I57" s="1">
@@ -3305,40 +3178,41 @@
         <v>15</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>512500</v>
       </c>
-      <c r="L57">
-        <f t="shared" ca="1" si="3"/>
-        <v>153750</v>
+      <c r="L57" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>51250</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>142</v>
+      <c r="A58" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250057</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
         <v>14</v>
       </c>
-      <c r="D58" t="s">
-        <v>15</v>
-      </c>
       <c r="E58">
-        <f t="shared" ca="1" si="4"/>
-        <v>15.4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G58">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>350000</v>
       </c>
       <c r="I58" s="1">
@@ -3348,40 +3222,41 @@
         <v>30</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1435000</v>
       </c>
-      <c r="L58">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+      <c r="L58" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>143500</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>143</v>
+      <c r="A59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250058</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E59">
-        <f t="shared" ca="1" si="4"/>
-        <v>11.4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>12.3</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G59">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150000</v>
       </c>
       <c r="I59" s="1">
@@ -3391,40 +3266,41 @@
         <v>50</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>615000</v>
       </c>
-      <c r="L59">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L59" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>61500</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>145</v>
+      <c r="A60" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250059</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E60">
-        <f t="shared" ca="1" si="4"/>
-        <v>22.9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>27.6</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G60">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75000</v>
       </c>
       <c r="I60" s="1">
@@ -3434,40 +3310,41 @@
         <v>90</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>307500</v>
       </c>
-      <c r="L60">
-        <f t="shared" ca="1" si="3"/>
-        <v>30750</v>
+      <c r="L60" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>147</v>
+      <c r="A61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250060</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
         <v>14</v>
       </c>
-      <c r="D61" t="s">
-        <v>15</v>
-      </c>
       <c r="E61">
-        <f t="shared" ca="1" si="4"/>
-        <v>20.9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>26.5</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G61">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300000</v>
       </c>
       <c r="I61" s="1">
@@ -3477,40 +3354,41 @@
         <v>20</v>
       </c>
       <c r="K61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1230000</v>
       </c>
-      <c r="L61">
-        <f t="shared" ca="1" si="3"/>
-        <v>246000</v>
+      <c r="L61" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>369000</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>149</v>
+      <c r="A62" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SP202311250061</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E62">
-        <f t="shared" ca="1" si="4"/>
-        <v>23.8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>13.5</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="I62" s="1">
@@ -3520,11 +3398,11 @@
         <v>35</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>410000</v>
       </c>
-      <c r="L62">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L62" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>123000</v>
       </c>
     </row>

--- a/src/main/resources/import/SanPham.xlsx
+++ b/src/main/resources/import/SanPham.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Downloads\tesst\QuanLyHieuSach\src\main\resources\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PTUD_APP\Manager_QuanLyHieuSach\src\main\resources\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A96550E-AEC3-465B-8B39-441CB98F3EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26909E50-5FB1-4AF9-A017-EDA797D6100F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4A98E7E-91B4-4117-82EF-535CA966D02F}"/>
   </bookViews>
@@ -667,7 +667,7 @@
   <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -728,29 +728,29 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
         <f ca="1">"SP" &amp; TEXT(TODAY(), "yyyyMMdd") &amp; TEXT(ROW(A1), "0000")</f>
-        <v>SP202311260001</v>
+        <v>SP202311300001</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="3" t="str">
         <f ca="1">"LSP" &amp; TEXT(TODAY(), "yyyyMMdd") &amp; TEXT(RANDBETWEEN(2, 10), "0000")</f>
-        <v>LSP202311260010</v>
+        <v>LSP202311300007</v>
       </c>
       <c r="D2" s="3" t="str">
         <f ca="1">"NCC" &amp; TEXT(TODAY(), "yyyyMMdd") &amp; TEXT(RANDBETWEEN(1, 23), "0000")</f>
-        <v>NCC202311260006</v>
+        <v>NCC202311300001</v>
       </c>
       <c r="E2" s="3">
         <f ca="1">ROUND(RAND()*(30-5)+5, 1)</f>
-        <v>12.7</v>
+        <v>25.7</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="3">
         <f ca="1">IF(RAND() &lt;= 0.8, 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="4">
         <f>I2*0.5</f>
@@ -774,22 +774,22 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A62" ca="1" si="0">"SP" &amp; TEXT(TODAY(), "yyyyMMdd") &amp; TEXT(ROW(A2), "0000")</f>
-        <v>SP202311260002</v>
+        <v>SP202311300002</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3" t="str">
         <f t="shared" ref="C3:C62" ca="1" si="1">"LSP" &amp; TEXT(TODAY(), "yyyyMMdd") &amp; TEXT(RANDBETWEEN(2, 10), "0000")</f>
-        <v>LSP202311260007</v>
+        <v>LSP202311300006</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D62" ca="1" si="2">"NCC" &amp; TEXT(TODAY(), "yyyyMMdd") &amp; TEXT(RANDBETWEEN(1, 23), "0000")</f>
-        <v>NCC202311260019</v>
+        <v>NCC202311300018</v>
       </c>
       <c r="E3" s="3">
         <f ca="1">ROUND(RAND()*(30-5)+5, 1)</f>
-        <v>26.6</v>
+        <v>14.2</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>15</v>
@@ -814,35 +814,35 @@
       </c>
       <c r="L3" s="4">
         <f t="shared" ref="L3:L62" ca="1" si="6">ROUNDUP(K3 * CHOOSE(RANDBETWEEN(1, 4),0.1, 0.2, 0.3,0), 2)</f>
-        <v>307500</v>
+        <v>205000</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260003</v>
+        <v>SP202311300003</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260007</v>
+        <v>LSP202311300007</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260016</v>
+        <v>NCC202311300004</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:E62" ca="1" si="7">ROUND(RAND()*(30-5)+5, 1)</f>
-        <v>15</v>
+        <v>26.5</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="4"/>
@@ -866,22 +866,22 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260004</v>
+        <v>SP202311300004</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260005</v>
+        <v>LSP202311300002</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260023</v>
+        <v>NCC202311300023</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>7.3</v>
+        <v>11.1</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
@@ -906,35 +906,35 @@
       </c>
       <c r="L5" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>492000</v>
+        <v>328000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260005</v>
+        <v>SP202311300005</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260009</v>
+        <v>LSP202311300002</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260002</v>
+        <v>NCC202311300023</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>13.2</v>
+        <v>25</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="4"/>
@@ -958,29 +958,29 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260006</v>
+        <v>SP202311300006</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260006</v>
+        <v>LSP202311300003</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260023</v>
+        <v>NCC202311300002</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>11.4</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="4"/>
@@ -998,35 +998,35 @@
       </c>
       <c r="L7" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>28700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260007</v>
+        <v>SP202311300007</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260002</v>
+        <v>LSP202311300005</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260005</v>
+        <v>NCC202311300014</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>27.7</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="4"/>
@@ -1044,35 +1044,35 @@
       </c>
       <c r="L8" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>30750</v>
+        <v>10250</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260008</v>
+        <v>SP202311300008</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260009</v>
+        <v>LSP202311300009</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260019</v>
+        <v>NCC202311300013</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.5</v>
+        <v>29.5</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="4"/>
@@ -1090,28 +1090,28 @@
       </c>
       <c r="L9" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>615000</v>
+        <v>922500</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260009</v>
+        <v>SP202311300009</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260008</v>
+        <v>LSP202311300008</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260011</v>
+        <v>NCC202311300013</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>27.8</v>
+        <v>20.5</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>28</v>
@@ -1136,28 +1136,28 @@
       </c>
       <c r="L10" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>123000</v>
+        <v>82000</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260010</v>
+        <v>SP202311300010</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260008</v>
+        <v>LSP202311300006</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260021</v>
+        <v>NCC202311300019</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>22.3</v>
+        <v>6.1</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>25</v>
@@ -1188,29 +1188,29 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260011</v>
+        <v>SP202311300011</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260003</v>
+        <v>LSP202311300008</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260001</v>
+        <v>NCC202311300013</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>19.399999999999999</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="4"/>
@@ -1228,28 +1228,28 @@
       </c>
       <c r="L12" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>55350</v>
+        <v>36900</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260012</v>
+        <v>SP202311300012</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260010</v>
+        <v>LSP202311300004</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260020</v>
+        <v>NCC202311300005</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>17.7</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>21</v>
@@ -1274,35 +1274,35 @@
       </c>
       <c r="L13" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>123000</v>
+        <v>61500</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260013</v>
+        <v>SP202311300013</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260008</v>
+        <v>LSP202311300003</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260009</v>
+        <v>NCC202311300006</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>29.7</v>
+        <v>18.3</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="4"/>
@@ -1320,35 +1320,35 @@
       </c>
       <c r="L14" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>73800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260014</v>
+        <v>SP202311300014</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260009</v>
+        <v>LSP202311300007</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260019</v>
+        <v>NCC202311300006</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>20.5</v>
+        <v>11.5</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="4"/>
@@ -1366,28 +1366,28 @@
       </c>
       <c r="L15" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>143500</v>
+        <v>71750</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260015</v>
+        <v>SP202311300015</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260005</v>
+        <v>LSP202311300009</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260014</v>
+        <v>NCC202311300016</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>21.3</v>
+        <v>15.3</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>15</v>
@@ -1418,22 +1418,22 @@
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260016</v>
+        <v>SP202311300016</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260007</v>
+        <v>LSP202311300003</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260023</v>
+        <v>NCC202311300015</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>18.7</v>
+        <v>21.7</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>15</v>
@@ -1464,22 +1464,22 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260017</v>
+        <v>SP202311300017</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260005</v>
+        <v>LSP202311300007</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260012</v>
+        <v>NCC202311300017</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>13.5</v>
+        <v>23.9</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>21</v>
@@ -1504,28 +1504,28 @@
       </c>
       <c r="L18" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260018</v>
+        <v>SP202311300018</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260006</v>
+        <v>LSP202311300010</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260019</v>
+        <v>NCC202311300020</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>10.6</v>
+        <v>27.6</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>31</v>
@@ -1550,28 +1550,28 @@
       </c>
       <c r="L19" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>82000</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260019</v>
+        <v>SP202311300019</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260009</v>
+        <v>LSP202311300007</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260006</v>
+        <v>NCC202311300006</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>21.8</v>
+        <v>16.8</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>23</v>
@@ -1596,28 +1596,28 @@
       </c>
       <c r="L20" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>73800</v>
+        <v>110700</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260020</v>
+        <v>SP202311300020</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260003</v>
+        <v>LSP202311300002</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260003</v>
+        <v>NCC202311300015</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>10.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>25</v>
@@ -1642,35 +1642,35 @@
       </c>
       <c r="L21" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>49200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260021</v>
+        <v>SP202311300021</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260008</v>
+        <v>LSP202311300009</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260007</v>
+        <v>NCC202311300021</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>15</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="4"/>
@@ -1688,35 +1688,35 @@
       </c>
       <c r="L22" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>10250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260022</v>
+        <v>SP202311300022</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260008</v>
+        <v>LSP202311300006</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260006</v>
+        <v>NCC202311300006</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>25.6</v>
+        <v>17.2</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="4"/>
@@ -1734,28 +1734,28 @@
       </c>
       <c r="L23" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>15375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260023</v>
+        <v>SP202311300023</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260003</v>
+        <v>LSP202311300005</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260011</v>
+        <v>NCC202311300004</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>22.9</v>
+        <v>15.5</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>21</v>
@@ -1786,22 +1786,22 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260024</v>
+        <v>SP202311300024</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260009</v>
+        <v>LSP202311300008</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260012</v>
+        <v>NCC202311300002</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>19.399999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>13</v>
@@ -1826,28 +1826,28 @@
       </c>
       <c r="L25" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>6150</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260025</v>
+        <v>SP202311300025</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260004</v>
+        <v>LSP202311300010</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260015</v>
+        <v>NCC202311300008</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>29.9</v>
+        <v>20.2</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>19</v>
@@ -1878,22 +1878,22 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260026</v>
+        <v>SP202311300026</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260010</v>
+        <v>LSP202311300009</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260023</v>
+        <v>NCC202311300015</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>15.3</v>
+        <v>25.5</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>15</v>
@@ -1918,28 +1918,28 @@
       </c>
       <c r="L27" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>61500</v>
+        <v>30750</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260027</v>
+        <v>SP202311300027</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260010</v>
+        <v>LSP202311300002</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260023</v>
+        <v>NCC202311300007</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>8.1</v>
+        <v>17.8</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>51</v>
@@ -1964,28 +1964,28 @@
       </c>
       <c r="L28" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>28700</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260028</v>
+        <v>SP202311300028</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260006</v>
+        <v>LSP202311300003</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260020</v>
+        <v>NCC202311300002</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>14.5</v>
+        <v>24.2</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>21</v>
@@ -2016,22 +2016,22 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260029</v>
+        <v>SP202311300029</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C30" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260005</v>
+        <v>LSP202311300004</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260012</v>
+        <v>NCC202311300005</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>7.7</v>
+        <v>15.6</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>54</v>
@@ -2062,22 +2062,22 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260030</v>
+        <v>SP202311300030</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260002</v>
+        <v>LSP202311300010</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260015</v>
+        <v>NCC202311300023</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>19.100000000000001</v>
+        <v>22</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>25</v>
@@ -2102,28 +2102,28 @@
       </c>
       <c r="L31" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260031</v>
+        <v>SP202311300031</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C32" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260003</v>
+        <v>LSP202311300009</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260011</v>
+        <v>NCC202311300021</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>15</v>
+        <v>27.1</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>21</v>
@@ -2148,28 +2148,28 @@
       </c>
       <c r="L32" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>18450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260032</v>
+        <v>SP202311300032</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C33" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260008</v>
+        <v>LSP202311300003</v>
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260019</v>
+        <v>NCC202311300003</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>21</v>
+        <v>9.9</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>31</v>
@@ -2194,28 +2194,28 @@
       </c>
       <c r="L33" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>153750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260033</v>
+        <v>SP202311300033</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260007</v>
+        <v>LSP202311300006</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260021</v>
+        <v>NCC202311300016</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>15.7</v>
+        <v>6.9</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>19</v>
@@ -2240,28 +2240,28 @@
       </c>
       <c r="L34" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>43050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260034</v>
+        <v>SP202311300034</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C35" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260002</v>
+        <v>LSP202311300010</v>
       </c>
       <c r="D35" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260005</v>
+        <v>NCC202311300020</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>25</v>
@@ -2292,22 +2292,22 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260035</v>
+        <v>SP202311300035</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C36" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260005</v>
+        <v>LSP202311300007</v>
       </c>
       <c r="D36" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260008</v>
+        <v>NCC202311300006</v>
       </c>
       <c r="E36" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>14</v>
+        <v>29.6</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>23</v>
@@ -2332,28 +2332,28 @@
       </c>
       <c r="L36" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>30750</v>
+        <v>10250</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260036</v>
+        <v>SP202311300036</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C37" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260009</v>
+        <v>LSP202311300004</v>
       </c>
       <c r="D37" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260012</v>
+        <v>NCC202311300008</v>
       </c>
       <c r="E37" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>13.3</v>
+        <v>21.8</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>15</v>
@@ -2384,22 +2384,22 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260037</v>
+        <v>SP202311300037</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C38" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260003</v>
+        <v>LSP202311300007</v>
       </c>
       <c r="D38" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260002</v>
+        <v>NCC202311300021</v>
       </c>
       <c r="E38" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>26.6</v>
+        <v>20.3</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>15</v>
@@ -2424,28 +2424,28 @@
       </c>
       <c r="L38" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>36900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260038</v>
+        <v>SP202311300038</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C39" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260005</v>
+        <v>LSP202311300004</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260006</v>
+        <v>NCC202311300005</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>29.6</v>
+        <v>15.7</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>31</v>
@@ -2476,22 +2476,22 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260039</v>
+        <v>SP202311300039</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C40" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260010</v>
+        <v>LSP202311300004</v>
       </c>
       <c r="D40" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260020</v>
+        <v>NCC202311300004</v>
       </c>
       <c r="E40" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>12.2</v>
+        <v>10.3</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>21</v>
@@ -2516,28 +2516,28 @@
       </c>
       <c r="L40" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>61500</v>
+        <v>30750</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260040</v>
+        <v>SP202311300040</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C41" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260004</v>
+        <v>LSP202311300009</v>
       </c>
       <c r="D41" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260006</v>
+        <v>NCC202311300010</v>
       </c>
       <c r="E41" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>20.399999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>25</v>
@@ -2568,29 +2568,29 @@
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260041</v>
+        <v>SP202311300041</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C42" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260003</v>
+        <v>LSP202311300009</v>
       </c>
       <c r="D42" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260010</v>
+        <v>NCC202311300023</v>
       </c>
       <c r="E42" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>29.3</v>
+        <v>6.8</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="4">
         <f t="shared" si="4"/>
@@ -2608,28 +2608,28 @@
       </c>
       <c r="L42" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>30750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260042</v>
+        <v>SP202311300042</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C43" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260002</v>
+        <v>LSP202311300009</v>
       </c>
       <c r="D43" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260013</v>
+        <v>NCC202311300006</v>
       </c>
       <c r="E43" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>23.5</v>
+        <v>6.7</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>21</v>
@@ -2660,22 +2660,22 @@
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260043</v>
+        <v>SP202311300043</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C44" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260007</v>
+        <v>LSP202311300003</v>
       </c>
       <c r="D44" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260021</v>
+        <v>NCC202311300016</v>
       </c>
       <c r="E44" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>18.600000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>25</v>
@@ -2700,35 +2700,35 @@
       </c>
       <c r="L44" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260044</v>
+        <v>SP202311300044</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C45" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260010</v>
+        <v>LSP202311300004</v>
       </c>
       <c r="D45" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260006</v>
+        <v>NCC202311300003</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>26.1</v>
+        <v>22.1</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="4">
         <f t="shared" si="4"/>
@@ -2752,22 +2752,22 @@
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260045</v>
+        <v>SP202311300045</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C46" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260002</v>
+        <v>LSP202311300003</v>
       </c>
       <c r="D46" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260005</v>
+        <v>NCC202311300013</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>13.1</v>
+        <v>15.5</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>21</v>
@@ -2792,28 +2792,28 @@
       </c>
       <c r="L46" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260046</v>
+        <v>SP202311300046</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C47" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260004</v>
+        <v>LSP202311300008</v>
       </c>
       <c r="D47" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260003</v>
+        <v>NCC202311300012</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>15.6</v>
+        <v>22.8</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>54</v>
@@ -2838,28 +2838,28 @@
       </c>
       <c r="L47" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>16400</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260047</v>
+        <v>SP202311300047</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C48" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260008</v>
+        <v>LSP202311300008</v>
       </c>
       <c r="D48" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260015</v>
+        <v>NCC202311300006</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>18.7</v>
+        <v>21.4</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>13</v>
@@ -2884,35 +2884,35 @@
       </c>
       <c r="L48" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>10250</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260048</v>
+        <v>SP202311300048</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C49" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260008</v>
+        <v>LSP202311300003</v>
       </c>
       <c r="D49" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260016</v>
+        <v>NCC202311300023</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>10.199999999999999</v>
+        <v>26.7</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="4">
         <f t="shared" si="4"/>
@@ -2930,28 +2930,28 @@
       </c>
       <c r="L49" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>6150</v>
+        <v>18450</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260049</v>
+        <v>SP202311300049</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C50" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260008</v>
+        <v>LSP202311300006</v>
       </c>
       <c r="D50" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260012</v>
+        <v>NCC202311300011</v>
       </c>
       <c r="E50" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>21</v>
@@ -2976,35 +2976,35 @@
       </c>
       <c r="L50" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>492000</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260050</v>
+        <v>SP202311300050</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C51" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260006</v>
+        <v>LSP202311300010</v>
       </c>
       <c r="D51" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260001</v>
+        <v>NCC202311300014</v>
       </c>
       <c r="E51" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>22.7</v>
+        <v>21.7</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G51" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="4">
         <f t="shared" si="4"/>
@@ -3022,28 +3022,28 @@
       </c>
       <c r="L51" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>16400</v>
+        <v>49200</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260051</v>
+        <v>SP202311300051</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C52" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260008</v>
+        <v>LSP202311300006</v>
       </c>
       <c r="D52" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260021</v>
+        <v>NCC202311300015</v>
       </c>
       <c r="E52" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>15.3</v>
+        <v>29.7</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>15</v>
@@ -3068,28 +3068,28 @@
       </c>
       <c r="L52" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>24600</v>
+        <v>73800</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260052</v>
+        <v>SP202311300052</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C53" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260008</v>
+        <v>LSP202311300009</v>
       </c>
       <c r="D53" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260022</v>
+        <v>NCC202311300009</v>
       </c>
       <c r="E53" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>16.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>31</v>
@@ -3120,22 +3120,22 @@
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260053</v>
+        <v>SP202311300053</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C54" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260010</v>
+        <v>LSP202311300002</v>
       </c>
       <c r="D54" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260022</v>
+        <v>NCC202311300005</v>
       </c>
       <c r="E54" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>22.8</v>
+        <v>13</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>21</v>
@@ -3166,29 +3166,29 @@
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260054</v>
+        <v>SP202311300054</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C55" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260004</v>
+        <v>LSP202311300006</v>
       </c>
       <c r="D55" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260019</v>
+        <v>NCC202311300010</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>12.8</v>
+        <v>7.2</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="4">
         <f t="shared" si="4"/>
@@ -3212,22 +3212,22 @@
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260055</v>
+        <v>SP202311300055</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C56" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260002</v>
+        <v>LSP202311300004</v>
       </c>
       <c r="D56" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260017</v>
+        <v>NCC202311300009</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>24.3</v>
+        <v>22.5</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>15</v>
@@ -3252,35 +3252,35 @@
       </c>
       <c r="L56" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>615000</v>
+        <v>922500</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260056</v>
+        <v>SP202311300056</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C57" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260010</v>
+        <v>LSP202311300009</v>
       </c>
       <c r="D57" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260022</v>
+        <v>NCC202311300016</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>28.2</v>
+        <v>26.8</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>81</v>
       </c>
       <c r="G57" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="4">
         <f t="shared" si="4"/>
@@ -3304,29 +3304,29 @@
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260057</v>
+        <v>SP202311300057</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C58" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260005</v>
+        <v>LSP202311300005</v>
       </c>
       <c r="D58" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260023</v>
+        <v>NCC202311300021</v>
       </c>
       <c r="E58" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>22.5</v>
+        <v>24.7</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G58" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="4">
         <f t="shared" si="4"/>
@@ -3344,28 +3344,28 @@
       </c>
       <c r="L58" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>430500</v>
+        <v>287000</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260058</v>
+        <v>SP202311300058</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C59" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260006</v>
+        <v>LSP202311300006</v>
       </c>
       <c r="D59" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260012</v>
+        <v>NCC202311300003</v>
       </c>
       <c r="E59" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>13.9</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>25</v>
@@ -3390,28 +3390,28 @@
       </c>
       <c r="L59" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>184500</v>
+        <v>61500</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260059</v>
+        <v>SP202311300059</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C60" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260005</v>
+        <v>LSP202311300002</v>
       </c>
       <c r="D60" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260013</v>
+        <v>NCC202311300010</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>17.100000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>21</v>
@@ -3436,28 +3436,28 @@
       </c>
       <c r="L60" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>61500</v>
+        <v>92250</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260060</v>
+        <v>SP202311300060</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C61" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260005</v>
+        <v>LSP202311300005</v>
       </c>
       <c r="D61" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260001</v>
+        <v>NCC202311300009</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>24.8</v>
+        <v>18.3</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>23</v>
@@ -3488,22 +3488,22 @@
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SP202311260061</v>
+        <v>SP202311300061</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C62" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSP202311260003</v>
+        <v>LSP202311300007</v>
       </c>
       <c r="D62" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NCC202311260006</v>
+        <v>NCC202311300018</v>
       </c>
       <c r="E62" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>24.2</v>
+        <v>11.1</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>15</v>
@@ -3532,7 +3532,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OLoSVeQlQ1pmZgJVr2OdG7Sq3Vbbp1eaF81y9sff/S+V4Oy4KErfyBzhie6p32QeBrWE1bisoZHq5ZaZ2H3wQg==" saltValue="aXd2AVbCWv+XxvJl9cTd2g==" spinCount="100000" sheet="1" objects="1" scenarios="1" autoFilter="0"/>
+  <sheetProtection autoFilter="0"/>
   <autoFilter ref="A1:L1" xr:uid="{CBB6A4C7-4B50-4675-8CC3-47D0FEE36865}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
